--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8572CC62-7D01-44EE-87BA-80B2774AA858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC83670B-7EAD-44C2-B226-10B5CE699BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
   <si>
     <t>UID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -462,6 +462,38 @@
   </si>
   <si>
     <t>LW@123.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>词性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(8)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(128)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10 0 0 0"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -513,12 +545,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -548,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
@@ -561,6 +599,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
@@ -846,7 +885,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -996,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D376C4C6-4333-413F-9126-222A87DC383F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1046,7 @@
     <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -1017,17 +1056,20 @@
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1038,12 +1080,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1054,10 +1099,13 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1068,10 +1116,13 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1082,10 +1133,13 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1096,10 +1150,13 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1110,12 +1167,16 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1124,7 +1185,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1289,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1324,7 +1385,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1435,19 +1496,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16DA4D9-ADF8-4DDE-AE7A-567244F2D7C8}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="11.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
@@ -1464,10 +1527,13 @@
         <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1484,10 +1550,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1503,11 +1572,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1523,11 +1595,14 @@
       <c r="E4">
         <v>67</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1543,11 +1618,14 @@
       <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1563,11 +1641,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1583,11 +1664,14 @@
       <c r="E7">
         <v>75</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1603,7 +1687,10 @@
       <c r="E8">
         <v>74</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8">
         <v>22</v>
       </c>
     </row>

--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC83670B-7EAD-44C2-B226-10B5CE699BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251B30D9-508C-4ABE-AE76-2E16C4AED893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="14400" windowHeight="7365" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="用户" sheetId="1" r:id="rId1"/>
-    <sheet name="词典" sheetId="2" r:id="rId2"/>
-    <sheet name="单词本" sheetId="3" r:id="rId3"/>
-    <sheet name="收录" sheetId="4" r:id="rId4"/>
-    <sheet name="单词计划" sheetId="5" r:id="rId5"/>
-    <sheet name="统计信息" sheetId="6" r:id="rId6"/>
+    <sheet name="USER" sheetId="1" r:id="rId1"/>
+    <sheet name="DICTIONARY" sheetId="2" r:id="rId2"/>
+    <sheet name="VOCABULARY" sheetId="3" r:id="rId3"/>
+    <sheet name="TAKES" sheetId="4" r:id="rId4"/>
+    <sheet name="PLAN" sheetId="5" r:id="rId5"/>
+    <sheet name="RECORD" sheetId="6" r:id="rId6"/>
+    <sheet name="FEEDBACK" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,32 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
   <si>
     <t>UID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>char(32)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -79,10 +60,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -95,10 +72,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>高中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0003</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -111,18 +84,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>单词</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -132,10 +93,6 @@
   </si>
   <si>
     <t>hello</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈喽</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -189,10 +146,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>世界</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>[w</t>
     </r>
@@ -249,27 +202,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>蟒蛇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议用时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -336,10 +269,6 @@
       </rPr>
       <t>sti]</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>匆忙的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -397,103 +326,243 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>消失</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>SID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(64)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM@123.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM@123.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW@123.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(128)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10 0 0 0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psymbol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 巨蟒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 轻率的；匆忙的
+n. (Hasty)人名；(英)黑斯蒂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int. 喂；哈罗
+n. 表示问候， 惊奇或唤起注意时的用语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 世界；领域；世俗；全人类；物质生活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 消失；突然不见；成为零
+vt. 使不见，使消失
+n. 弱化音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psymbol(phonetic symbol)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅供参考，设计数据库时请选择合适的数据类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要考虑如何把不同的意思、词性分开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男/女/未知</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proficiency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahour(Active hour)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要考虑如何保存一天的活跃时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>熟练度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>背单词数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小测成绩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>活跃时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(64)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM@123.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WM@123.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LW@123.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>词性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(8)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(128)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10 0 0 0"</t>
+    <t>Pnumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//base64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Junior Senior Undergraduate Graduate Doctor Others</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有个默认初始头像，0/null，仅供参考</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>想到再添</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时只用0，1，2，3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：onehot形式？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMG! I'v never seen such perfect APP!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why didn't I find such great software earlier!!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分反馈应该是中文的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +573,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,8 +613,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,12 +638,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -576,8 +665,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -585,8 +689,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
@@ -599,12 +706,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="解释性文本" xfId="2" builtinId="53"/>
+    <cellStyle name="注释" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,148 +996,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="8.6640625" style="3"/>
-    <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="3"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3">
+        <v>13900008888</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3">
+        <v>18900006666</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3">
+        <v>13800007777</v>
+      </c>
+      <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="3">
-        <v>13900008888</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="3">
-        <v>18900006666</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="3">
-        <v>13800007777</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="H6" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1035,142 +1180,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D376C4C6-4333-413F-9126-222A87DC383F}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1182,100 +1314,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DBA8FB-88F1-4EB0-BD92-66203B0D2E84}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1289,89 +1427,89 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1382,107 +1520,116 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1E3B8C-363E-4281-8021-AA5C49CCC953}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -1496,72 +1643,76 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16DA4D9-ADF8-4DDE-AE7A-567244F2D7C8}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="11.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9">
         <v>43800</v>
@@ -1573,18 +1724,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9">
         <v>43800</v>
@@ -1596,18 +1747,18 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9">
         <v>43800</v>
@@ -1619,18 +1770,18 @@
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="9">
         <v>43801</v>
@@ -1642,18 +1793,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9">
         <v>43801</v>
@@ -1665,18 +1816,18 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9">
         <v>43801</v>
@@ -1688,11 +1839,113 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>22</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12B2EC6-5F84-45C3-B09F-CDDF01645688}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J11:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251B30D9-508C-4ABE-AE76-2E16C4AED893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="14400" windowHeight="7365" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19440" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="USER" sheetId="1" r:id="rId1"/>
+    <sheet name="USERS" sheetId="1" r:id="rId1"/>
     <sheet name="DICTIONARY" sheetId="2" r:id="rId2"/>
     <sheet name="VOCABULARY" sheetId="3" r:id="rId3"/>
     <sheet name="TAKES" sheetId="4" r:id="rId4"/>
@@ -16,87 +15,147 @@
     <sheet name="RECORD" sheetId="6" r:id="rId6"/>
     <sheet name="FEEDBACK" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>UID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uname</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Pnumber</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
   <si>
     <t>char(32)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>char(64)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//base64</t>
   </si>
   <si>
     <t>char(1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅供参考，设计数据库时请选择合适的数据类型</t>
   </si>
   <si>
     <t>0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>LM@123.com</t>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undergraduate</t>
   </si>
   <si>
     <t>0002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM@123.com</t>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior</t>
   </si>
   <si>
     <t>0003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW@123.com</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>需要有个默认初始头像，0/null，仅供参考</t>
+  </si>
+  <si>
+    <t>男/女/未知</t>
+  </si>
+  <si>
+    <t>Primary Junior Senior Undergraduate Graduate Doctor Others</t>
   </si>
   <si>
     <t>WID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Psymbol</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psymbol(phonetic symbol)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>char(128)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hello</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[he</t>
     </r>
     <r>
@@ -104,7 +163,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ˈ</t>
@@ -113,8 +171,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>l</t>
@@ -124,7 +182,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>əʊ</t>
@@ -133,20 +190,32 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">] </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int. 喂；哈罗
+n. 表示问候， 惊奇或唤起注意时的用语</t>
+  </si>
+  <si>
+    <t>需要考虑如何把不同的意思、词性分开</t>
   </si>
   <si>
     <t>world</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[w</t>
     </r>
     <r>
@@ -154,7 +223,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ɜ</t>
@@ -163,16 +231,28 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>rld]</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 世界；领域；世俗；全人类；物质生活</t>
+  </si>
+  <si>
+    <t>python</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>['pa</t>
     </r>
     <r>
@@ -180,7 +260,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ɪ</t>
@@ -189,64 +268,31 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">θɑn] </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>17天搞定GRE单词</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>45天托福红宝书记忆计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高考单词闪过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 巨蟒</t>
   </si>
   <si>
     <t>0004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hasty</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>['he</t>
     </r>
     <r>
@@ -254,7 +300,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ɪ</t>
@@ -263,24 +308,32 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>sti]</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 轻率的；匆忙的
+n. (Hasty)人名；(英)黑斯蒂</t>
   </si>
   <si>
     <t>0005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vanish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
@@ -288,7 +341,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ˈ</t>
@@ -297,8 +349,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>væni</t>
@@ -308,7 +360,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ʃ</t>
@@ -317,276 +368,148 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(64)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM@123.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WM@123.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LW@123.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(128)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10 0 0 0"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uname</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Psymbol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 巨蟒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj. 轻率的；匆忙的
-n. (Hasty)人名；(英)黑斯蒂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int. 喂；哈罗
-n. 表示问候， 惊奇或唤起注意时的用语</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 世界；领域；世俗；全人类；物质生活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vi. 消失；突然不见；成为零
 vt. 使不见，使消失
 n. 弱化音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Psymbol(phonetic symbol)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅供参考，设计数据库时请选择合适的数据类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要考虑如何把不同的意思、词性分开</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Education</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>男/女/未知</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VID</t>
   </si>
   <si>
     <t>Vname</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Count</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Day</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17天搞定GRE单词</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>45天托福红宝书记忆计划</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>托福</t>
+  </si>
+  <si>
+    <t>高考单词闪过</t>
+  </si>
+  <si>
+    <t>高考</t>
+  </si>
+  <si>
+    <t>想到再添</t>
+  </si>
+  <si>
+    <t>TID</t>
   </si>
   <si>
     <t>Proficiency</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练度</t>
+  </si>
+  <si>
+    <t>暂时只用0，1，2，3</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>Dates</t>
   </si>
   <si>
     <t>Score</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ahour</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ahour(Active hour)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>"10 0 0 0"</t>
+  </si>
+  <si>
+    <t>0006</t>
   </si>
   <si>
     <t>需要考虑如何保存一天的活跃时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pnumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avatar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>//base64</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Senior</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primary Junior Senior Undergraduate Graduate Doctor Others</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有个默认初始头像，0/null，仅供参考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>想到再添</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时只用0，1，2，3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>比如：onehot形式？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-10</t>
+  </si>
+  <si>
+    <t>OMG! I'v never seen such perfect APP!</t>
   </si>
   <si>
     <t>2019-12-13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-12-10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OMG! I'v never seen such perfect APP!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Why didn't I find such great software earlier!!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大部分反馈应该是中文的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -594,42 +517,153 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +673,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -647,8 +682,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -680,54 +895,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="36" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="35" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="36" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="解释性文本" xfId="2" builtinId="53"/>
-    <cellStyle name="注释" xfId="3" builtinId="10"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -776,7 +1250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -811,7 +1285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -985,736 +1459,736 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="8.625" style="3"/>
+    <col min="3" max="3" width="8.62857142857143" style="3"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="13.247619047619" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.752380952381" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="20.25" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="3">
         <v>13900008888</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>18900006666</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="3">
         <v>13800007777</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>84</v>
+    <row r="6" spans="4:8">
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D376C4C6-4333-413F-9126-222A87DC383F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="20.1238095238095" customWidth="1"/>
+    <col min="4" max="4" width="20.5047619047619" customWidth="1"/>
+    <col min="5" max="5" width="29.752380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="20.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" ht="14.1" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" ht="14.1" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="14.1" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D6" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="14.1" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DBA8FB-88F1-4EB0-BD92-66203B0D2E84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="21.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="6.37142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" ht="20.25" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="14" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F845714E-D64B-45EC-9757-D030DFC8353E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="A1" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="3" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="20.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1E3B8C-363E-4281-8021-AA5C49CCC953}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="20.25" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16DA4D9-ADF8-4DDE-AE7A-567244F2D7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="11.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="11.6285714285714" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.75238095238095" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="20.25" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
+      <c r="G1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
         <v>43800</v>
       </c>
       <c r="D3">
@@ -1724,20 +2198,20 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
         <v>43800</v>
       </c>
       <c r="D4">
@@ -1747,20 +2221,20 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5">
         <v>43800</v>
       </c>
       <c r="D5">
@@ -1770,20 +2244,20 @@
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
         <v>43801</v>
       </c>
       <c r="D6">
@@ -1793,20 +2267,20 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
         <v>43801</v>
       </c>
       <c r="D7">
@@ -1816,20 +2290,20 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5">
         <v>43801</v>
       </c>
       <c r="D8">
@@ -1839,116 +2313,117 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G9" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G10" s="14" t="s">
-        <v>88</v>
+    <row r="9" spans="7:7">
+      <c r="G9" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12B2EC6-5F84-45C3-B09F-CDDF01645688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J11:J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="20.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20353"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FY_NetLab\Desktop\Database\project\DatabaseProject_server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E2E4DB-5B03-4964-B070-68FDA0182DD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7815" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -152,8 +158,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>[he</t>
@@ -171,8 +177,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>l</t>
@@ -190,8 +196,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">] </t>
@@ -212,8 +218,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>[w</t>
@@ -231,8 +237,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>rld]</t>
@@ -249,8 +255,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>['pa</t>
@@ -268,8 +274,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">θɑn] </t>
@@ -289,8 +295,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>['he</t>
@@ -308,8 +314,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>sti]</t>
@@ -330,8 +336,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>[</t>
@@ -349,8 +355,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>væni</t>
@@ -368,8 +374,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -471,189 +477,66 @@
     <t>Info</t>
   </si>
   <si>
-    <t>2019-12-10</t>
-  </si>
-  <si>
     <t>OMG! I'v never seen such perfect APP!</t>
   </si>
   <si>
-    <t>2019-12-13</t>
-  </si>
-  <si>
     <t>Why didn't I find such great software earlier!!!</t>
   </si>
   <si>
     <t>大部分反馈应该是中文的</t>
+  </si>
+  <si>
+    <t>2019-12-28-00-01-20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-27-00-01-20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,8 +545,36 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,188 +593,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -895,313 +626,55 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="36" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="35" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="36" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="标题 1" xfId="3" builtinId="16"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="2" builtinId="53"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1459,29 +932,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="8.62857142857143" style="3"/>
+    <col min="3" max="3" width="8.625" style="3"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="13.247619047619" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.752380952381" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:9">
+    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +1015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1600,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1629,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1641,30 +1114,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="20.1238095238095" customWidth="1"/>
-    <col min="4" max="4" width="20.5047619047619" customWidth="1"/>
-    <col min="5" max="5" width="29.752380952381" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:6">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1684,7 +1156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="14.45" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1702,7 +1174,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1719,7 +1191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="14.1" customHeight="1" spans="1:4">
+    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1733,7 +1205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="14.1" customHeight="1" spans="1:4">
+    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" ht="14.1" customHeight="1" spans="1:4">
+    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1761,7 +1233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" ht="14.1" customHeight="1" spans="1:4">
+    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1776,28 +1248,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.3714285714286" customWidth="1"/>
-    <col min="4" max="4" width="6.37142857142857" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1814,7 +1285,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1831,7 +1302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +1319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1865,7 +1336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1882,32 +1353,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="5:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="10" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:3">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1918,7 +1388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1929,7 +1399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1940,7 +1410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1951,7 +1421,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +1432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1973,7 +1443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1985,26 +1455,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.5047619047619" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +1490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2038,7 +1507,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2052,7 +1521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2080,7 +1549,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -2094,7 +1563,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2109,30 +1578,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="11.6285714285714" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.75238095238095" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="13.8761904761905" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:8">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -2158,7 +1626,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2181,7 +1649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2204,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2227,7 +1695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +1718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -2273,7 +1741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -2296,7 +1764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
@@ -2319,34 +1787,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="7:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G10" s="10" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -2360,7 +1827,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2374,56 +1841,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>91</v>
+      <c r="C4" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20353"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FY_NetLab\Desktop\Database\project\DatabaseProject_server\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E2E4DB-5B03-4964-B070-68FDA0182DD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7815" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19440" windowHeight="7815" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="94">
   <si>
     <t>UID</t>
   </si>
@@ -158,8 +152,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>[he</t>
@@ -177,8 +171,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>l</t>
@@ -196,8 +190,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">] </t>
@@ -218,8 +212,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>[w</t>
@@ -237,8 +231,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>rld]</t>
@@ -255,8 +249,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>['pa</t>
@@ -274,8 +268,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">θɑn] </t>
@@ -295,8 +289,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>['he</t>
@@ -314,8 +308,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>sti]</t>
@@ -336,8 +330,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>[</t>
@@ -355,8 +349,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>væni</t>
@@ -374,8 +368,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -453,7 +447,7 @@
     <t>Ahour</t>
   </si>
   <si>
-    <t>Ahour(Active hour)</t>
+    <t>ADay</t>
   </si>
   <si>
     <t>varchar</t>
@@ -477,66 +471,203 @@
     <t>Info</t>
   </si>
   <si>
+    <t>2019-12-27-00-01-20</t>
+  </si>
+  <si>
     <t>OMG! I'v never seen such perfect APP!</t>
   </si>
   <si>
+    <t>2019-12-28-00-01-20</t>
+  </si>
+  <si>
     <t>Why didn't I find such great software earlier!!!</t>
   </si>
   <si>
     <t>大部分反馈应该是中文的</t>
-  </si>
-  <si>
-    <t>2019-12-28-00-01-20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-12-27-00-01-20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,36 +676,8 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,8 +696,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -626,55 +909,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="36" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="35" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="36" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="标题 1" xfId="3" builtinId="16"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="解释性文本" xfId="2" builtinId="53"/>
-    <cellStyle name="注释" xfId="1" builtinId="10"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -932,33 +1474,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="8.625" style="3"/>
+    <col min="3" max="3" width="8.62857142857143" style="3"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="13.247619047619" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.752380952381" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -973,21 +1515,21 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1002,20 +1544,20 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1028,7 +1570,7 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="3">
@@ -1044,7 +1586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1057,7 +1599,7 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="3">
@@ -1073,7 +1615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1086,7 +1628,7 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="3">
@@ -1102,79 +1644,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="4:8">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="20.1238095238095" customWidth="1"/>
+    <col min="4" max="4" width="20.5047619047619" customWidth="1"/>
+    <col min="5" max="5" width="29.752380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="14.45" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" ht="14.1" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1184,14 +1727,14 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="14.1" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1201,11 +1744,11 @@
       <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="14.1" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1219,7 +1762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="14.1" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1229,11 +1772,11 @@
       <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="14.1" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1243,66 +1786,67 @@
       <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="21.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="6.37142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1319,7 +1863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1336,7 +1880,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1353,31 +1897,32 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="10" t="s">
+    <row r="6" spans="5:5">
+      <c r="E6" s="11" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="3" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.25" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1388,7 +1933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1410,7 +1955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1443,7 +1988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1455,25 +2000,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,14 +2029,14 @@
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1500,14 +2046,14 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1521,7 +2067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1535,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1549,7 +2095,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1563,7 +2109,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1578,85 +2124,89 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="11.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="11.6285714285714" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.75238095238095" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>43800</v>
       </c>
       <c r="D3">
@@ -1671,15 +2221,18 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>43800</v>
       </c>
       <c r="D4">
@@ -1694,15 +2247,18 @@
       <c r="G4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>43800</v>
       </c>
       <c r="D5">
@@ -1717,15 +2273,18 @@
       <c r="G5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>43801</v>
       </c>
       <c r="D6">
@@ -1740,15 +2299,18 @@
       <c r="G6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>43801</v>
       </c>
       <c r="D7">
@@ -1763,15 +2325,18 @@
       <c r="G7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>43801</v>
       </c>
       <c r="D8">
@@ -1786,34 +2351,38 @@
       <c r="G8">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G9" s="10" t="s">
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G10" s="10" t="s">
+    <row r="10" spans="7:7">
+      <c r="G10" s="11" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.25" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1827,7 +2396,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1841,57 +2410,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>93</v>
+      <c r="C3" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="107">
   <si>
     <t>UID</t>
   </si>
@@ -450,25 +450,64 @@
     <t>ADay</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>numeric[]</t>
+  </si>
+  <si>
+    <t>{10 0 0 0}</t>
+  </si>
+  <si>
+    <t>{0,...,0}</t>
+  </si>
+  <si>
+    <t>{10 0 0 1}</t>
+  </si>
+  <si>
+    <t>{0,...,1}</t>
+  </si>
+  <si>
+    <t>{10 0 0 2}</t>
+  </si>
+  <si>
+    <t>{0,...,2}</t>
+  </si>
+  <si>
+    <t>{10 0 0 3}</t>
+  </si>
+  <si>
+    <t>{0,...,3}</t>
+  </si>
+  <si>
+    <t>{10 0 0 4}</t>
+  </si>
+  <si>
+    <t>{0,...,4}</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>{10 0 0 5}</t>
+  </si>
+  <si>
+    <t>{0,...,5}</t>
+  </si>
+  <si>
+    <t>需要考虑如何保存一天的活跃时间</t>
+  </si>
+  <si>
+    <t>比如：onehot形式？</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
     <t>varchar</t>
-  </si>
-  <si>
-    <t>"10 0 0 0"</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>需要考虑如何保存一天的活跃时间</t>
-  </si>
-  <si>
-    <t>比如：onehot形式？</t>
-  </si>
-  <si>
-    <t>FID</t>
-  </si>
-  <si>
-    <t>Info</t>
   </si>
   <si>
     <t>2019-12-27-00-01-20</t>
@@ -492,12 +531,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,13 +556,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -552,11 +584,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,22 +630,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,44 +676,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -656,18 +689,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,175 +729,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,13 +959,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,24 +991,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,109 +1008,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,40 +1128,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1170,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
@@ -1158,7 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -2135,7 +2160,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2190,10 +2215,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>13</v>
@@ -2216,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2242,10 +2267,10 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2268,10 +2293,10 @@
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2294,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2320,10 +2345,10 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -2331,7 +2356,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -2346,10 +2371,10 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8">
-        <v>22</v>
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -2357,12 +2382,12 @@
     </row>
     <row r="9" spans="7:7">
       <c r="G9" s="11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="7:7">
       <c r="G10" s="11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2409,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2393,7 +2418,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
@@ -2407,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2418,10 +2443,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2432,10 +2457,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2443,7 +2468,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20353"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FY_NetLab\Desktop\Database\project\DatabaseProject_server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F21B1F-2166-49CC-BE26-178D8E59B03B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="7815" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7815" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="110">
   <si>
     <t>UID</t>
   </si>
@@ -152,8 +158,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>[he</t>
@@ -171,8 +177,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>l</t>
@@ -190,8 +196,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">] </t>
@@ -212,8 +218,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>[w</t>
@@ -231,8 +237,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>rld]</t>
@@ -249,8 +255,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>['pa</t>
@@ -268,8 +274,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">θɑn] </t>
@@ -289,8 +295,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>['he</t>
@@ -308,8 +314,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>sti]</t>
@@ -330,8 +336,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>[</t>
@@ -349,8 +355,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>væni</t>
@@ -368,8 +374,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -524,175 +530,62 @@
   <si>
     <t>大部分反馈应该是中文的</t>
   </si>
+  <si>
+    <t>Learned</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reviewed</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -701,8 +594,28 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,188 +634,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -934,314 +667,55 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="36" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="35" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="36" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="标题 1" xfId="3" builtinId="16"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="2" builtinId="53"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1499,29 +973,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="8.62857142857143" style="3"/>
+    <col min="3" max="3" width="8.625" style="3"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="13.247619047619" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.752380952381" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:9">
+    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1669,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1681,30 +1155,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="20.1238095238095" customWidth="1"/>
-    <col min="4" max="4" width="20.5047619047619" customWidth="1"/>
-    <col min="5" max="5" width="29.752380952381" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:6">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="14.45" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1215,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1759,7 +1232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="14.1" customHeight="1" spans="1:4">
+    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1773,7 +1246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="14.1" customHeight="1" spans="1:4">
+    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1787,7 +1260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" ht="14.1" customHeight="1" spans="1:4">
+    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1801,7 +1274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" ht="14.1" customHeight="1" spans="1:4">
+    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1816,28 +1289,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.3714285714286" customWidth="1"/>
-    <col min="4" max="4" width="6.37142857142857" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1854,7 +1326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1888,7 +1360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1905,7 +1377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1922,32 +1394,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="5:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="11" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:3">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1958,7 +1429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1969,7 +1440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1980,7 +1451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1991,7 +1462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2002,7 +1473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -2013,7 +1484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -2025,26 +1496,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.5047619047619" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +1531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +1548,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2092,7 +1562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2106,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2120,7 +1590,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -2134,7 +1604,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2149,30 +1619,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="11.6285714285714" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.75238095238095" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="13.8761904761905" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:8">
+    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -2183,22 +1652,25 @@
         <v>78</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2212,19 +1684,22 @@
         <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2240,17 +1715,20 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>85</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2264,19 +1742,22 @@
         <v>100</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>67</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>87</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2290,19 +1771,22 @@
         <v>30</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>70</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>88</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>89</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -2318,17 +1802,20 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>91</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -2342,19 +1829,22 @@
         <v>100</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>93</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
@@ -2368,46 +1858,49 @@
         <v>20</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>74</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>96</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="7:7">
-      <c r="G9" s="11" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
-      <c r="G10" s="11" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="11" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -2421,7 +1914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2435,7 +1928,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2449,7 +1942,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2463,7 +1956,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2471,21 +1964,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>